--- a/BastianHerre/biological_chemical_weapons/OWID based on Arms Control Association (2022), Nuclear Threat Initiative (2022), Center for Nonproliferation Studies (2008), and UN (2022) biological and chemical weapons proliferation/biological_chemical_weapons_proliferation_raw.xlsx
+++ b/BastianHerre/biological_chemical_weapons/OWID based on Arms Control Association (2022), Nuclear Threat Initiative (2022), Center for Nonproliferation Studies (2008), and UN (2022) biological and chemical weapons proliferation/biological_chemical_weapons_proliferation_raw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bastianherre/Dropbox/Data/biological_chemical_weapons/OWID based on Arms Control Association (2022), Nuclear Threat Initiative (2022), Center for Nonproliferation Studies (2008), and UN (2022) biological and chemical weapons proliferation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40145B9-FE90-ED4C-BD13-2F55D1FC6B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BF0FA3-A37F-1940-8DBB-26C575474702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7850FBFA-5780-AC4A-BE88-30DAFDB7324F}"/>
   </bookViews>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AD4FA3-34FF-4344-90DC-F9D510392035}">
   <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4904,7 +4904,7 @@
         <v>209</v>
       </c>
       <c r="G147" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="H147" t="s">
         <v>204</v>

--- a/BastianHerre/biological_chemical_weapons/OWID based on Arms Control Association (2022), Nuclear Threat Initiative (2022), Center for Nonproliferation Studies (2008), and UN (2022) biological and chemical weapons proliferation/biological_chemical_weapons_proliferation_raw.xlsx
+++ b/BastianHerre/biological_chemical_weapons/OWID based on Arms Control Association (2022), Nuclear Threat Initiative (2022), Center for Nonproliferation Studies (2008), and UN (2022) biological and chemical weapons proliferation/biological_chemical_weapons_proliferation_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bastianherre/Dropbox/Data/biological_chemical_weapons/OWID based on Arms Control Association (2022), Nuclear Threat Initiative (2022), Center for Nonproliferation Studies (2008), and UN (2022) biological and chemical weapons proliferation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BF0FA3-A37F-1940-8DBB-26C575474702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB95F1B4-3BCF-0141-9B70-3872CE548089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7850FBFA-5780-AC4A-BE88-30DAFDB7324F}"/>
   </bookViews>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AD4FA3-34FF-4344-90DC-F9D510392035}">
   <dimension ref="A1:H198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1368,7 +1368,7 @@
         <v>212</v>
       </c>
       <c r="G11" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="H11" t="s">
         <v>204</v>
@@ -2824,7 +2824,7 @@
         <v>212</v>
       </c>
       <c r="G67" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H67" t="s">
         <v>204</v>
@@ -3318,7 +3318,7 @@
         <v>212</v>
       </c>
       <c r="G86" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H86" t="s">
         <v>204</v>
@@ -5450,7 +5450,7 @@
         <v>212</v>
       </c>
       <c r="G168" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="H168" t="s">
         <v>204</v>

--- a/BastianHerre/biological_chemical_weapons/OWID based on Arms Control Association (2022), Nuclear Threat Initiative (2022), Center for Nonproliferation Studies (2008), and UN (2022) biological and chemical weapons proliferation/biological_chemical_weapons_proliferation_raw.xlsx
+++ b/BastianHerre/biological_chemical_weapons/OWID based on Arms Control Association (2022), Nuclear Threat Initiative (2022), Center for Nonproliferation Studies (2008), and UN (2022) biological and chemical weapons proliferation/biological_chemical_weapons_proliferation_raw.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bastianherre/Dropbox/Data/biological_chemical_weapons/OWID based on Arms Control Association (2022), Nuclear Threat Initiative (2022), Center for Nonproliferation Studies (2008), and UN (2022) biological and chemical weapons proliferation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bastianherre/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB95F1B4-3BCF-0141-9B70-3872CE548089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E90E14-169A-1348-9B27-CF21906EA07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7850FBFA-5780-AC4A-BE88-30DAFDB7324F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="215">
   <si>
     <t>Albania</t>
   </si>
@@ -649,15 +649,6 @@
     <t>used</t>
   </si>
   <si>
-    <t>ratified</t>
-  </si>
-  <si>
-    <t>neither ratified nor signed</t>
-  </si>
-  <si>
-    <t>signed</t>
-  </si>
-  <si>
     <t>recently used</t>
   </si>
   <si>
@@ -683,12 +674,6 @@
   </si>
   <si>
     <t>chemweapons_status_current</t>
-  </si>
-  <si>
-    <t>chemweapons_convention</t>
-  </si>
-  <si>
-    <t>bioweapons_convention</t>
   </si>
   <si>
     <t>bioweapons_status_hist</t>
@@ -701,7 +686,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -713,13 +698,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -751,12 +729,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,9 +751,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -815,7 +791,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -921,7 +897,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1063,7 +1039,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,24 +1047,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AD4FA3-34FF-4344-90DC-F9D510392035}">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G168" sqref="G168"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>197</v>
       </c>
@@ -1096,25 +1069,19 @@
         <v>196</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1122,25 +1089,19 @@
         <v>2022</v>
       </c>
       <c r="C2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1148,25 +1109,19 @@
         <v>2022</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" t="s">
         <v>201</v>
       </c>
-      <c r="H3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1174,25 +1129,19 @@
         <v>2022</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1200,25 +1149,19 @@
         <v>2022</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D5" t="s">
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1226,25 +1169,19 @@
         <v>2022</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>212</v>
-      </c>
-      <c r="G6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1252,25 +1189,19 @@
         <v>2022</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D7" t="s">
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1278,25 +1209,19 @@
         <v>2022</v>
       </c>
       <c r="C8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D8" t="s">
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1304,25 +1229,19 @@
         <v>2022</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D9" t="s">
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
-      </c>
-      <c r="G9" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1330,25 +1249,19 @@
         <v>2022</v>
       </c>
       <c r="C10" t="s">
-        <v>212</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D10" t="s">
+        <v>210</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" t="s">
         <v>201</v>
       </c>
-      <c r="H10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1356,25 +1269,19 @@
         <v>2022</v>
       </c>
       <c r="C11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D11" t="s">
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" t="s">
         <v>203</v>
       </c>
-      <c r="H11" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1382,25 +1289,19 @@
         <v>2022</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D12" t="s">
+        <v>210</v>
       </c>
       <c r="E12" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1408,25 +1309,19 @@
         <v>2022</v>
       </c>
       <c r="C13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D13" t="s">
+        <v>210</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F13" t="s">
-        <v>212</v>
-      </c>
-      <c r="G13" t="s">
-        <v>213</v>
-      </c>
-      <c r="H13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1434,25 +1329,19 @@
         <v>2022</v>
       </c>
       <c r="C14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D14" t="s">
+        <v>210</v>
       </c>
       <c r="E14" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1460,25 +1349,19 @@
         <v>2022</v>
       </c>
       <c r="C15" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D15" t="s">
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" t="s">
-        <v>213</v>
-      </c>
-      <c r="H15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1486,25 +1369,19 @@
         <v>2022</v>
       </c>
       <c r="C16" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
+        <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F16" t="s">
-        <v>212</v>
-      </c>
-      <c r="G16" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1512,25 +1389,19 @@
         <v>2022</v>
       </c>
       <c r="C17" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D17" t="s">
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F17" t="s">
-        <v>212</v>
-      </c>
-      <c r="G17" t="s">
-        <v>213</v>
-      </c>
-      <c r="H17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1538,25 +1409,19 @@
         <v>2022</v>
       </c>
       <c r="C18" t="s">
-        <v>212</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D18" t="s">
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" t="s">
-        <v>213</v>
-      </c>
-      <c r="H18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1564,25 +1429,19 @@
         <v>2022</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D19" t="s">
+        <v>210</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1590,25 +1449,19 @@
         <v>2022</v>
       </c>
       <c r="C20" t="s">
-        <v>212</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D20" t="s">
+        <v>210</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F20" t="s">
-        <v>212</v>
-      </c>
-      <c r="G20" t="s">
-        <v>213</v>
-      </c>
-      <c r="H20" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -1616,25 +1469,19 @@
         <v>2022</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D21" t="s">
+        <v>210</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F21" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21" t="s">
-        <v>213</v>
-      </c>
-      <c r="H21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1642,25 +1489,19 @@
         <v>2022</v>
       </c>
       <c r="C22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D22" t="s">
+        <v>210</v>
       </c>
       <c r="E22" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F22" t="s">
-        <v>212</v>
-      </c>
-      <c r="G22" t="s">
-        <v>213</v>
-      </c>
-      <c r="H22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1668,25 +1509,19 @@
         <v>2022</v>
       </c>
       <c r="C23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D23" t="s">
+        <v>210</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F23" t="s">
-        <v>212</v>
-      </c>
-      <c r="G23" t="s">
-        <v>213</v>
-      </c>
-      <c r="H23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -1694,25 +1529,19 @@
         <v>2022</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D24" t="s">
+        <v>210</v>
       </c>
       <c r="E24" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
-      </c>
-      <c r="G24" t="s">
-        <v>213</v>
-      </c>
-      <c r="H24" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1720,25 +1549,19 @@
         <v>2022</v>
       </c>
       <c r="C25" t="s">
-        <v>212</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D25" t="s">
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" t="s">
-        <v>213</v>
-      </c>
-      <c r="H25" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1746,25 +1569,19 @@
         <v>2022</v>
       </c>
       <c r="C26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D26" t="s">
+        <v>210</v>
       </c>
       <c r="E26" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
-      </c>
-      <c r="G26" t="s">
-        <v>213</v>
-      </c>
-      <c r="H26" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -1772,25 +1589,19 @@
         <v>2022</v>
       </c>
       <c r="C27" t="s">
-        <v>212</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D27" t="s">
+        <v>210</v>
       </c>
       <c r="E27" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F27" t="s">
-        <v>212</v>
-      </c>
-      <c r="G27" t="s">
-        <v>213</v>
-      </c>
-      <c r="H27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1798,25 +1609,19 @@
         <v>2022</v>
       </c>
       <c r="C28" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
       </c>
       <c r="E28" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F28" t="s">
-        <v>212</v>
-      </c>
-      <c r="G28" t="s">
-        <v>213</v>
-      </c>
-      <c r="H28" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -1824,25 +1629,19 @@
         <v>2022</v>
       </c>
       <c r="C29" t="s">
-        <v>212</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D29" t="s">
+        <v>210</v>
       </c>
       <c r="E29" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F29" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" t="s">
-        <v>213</v>
-      </c>
-      <c r="H29" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -1850,25 +1649,19 @@
         <v>2022</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D30" t="s">
+        <v>210</v>
       </c>
       <c r="E30" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" t="s">
-        <v>213</v>
-      </c>
-      <c r="H30" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -1876,25 +1669,19 @@
         <v>2022</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D31" t="s">
+        <v>210</v>
       </c>
       <c r="E31" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F31" t="s">
-        <v>212</v>
-      </c>
-      <c r="G31" t="s">
-        <v>213</v>
-      </c>
-      <c r="H31" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1902,25 +1689,19 @@
         <v>2022</v>
       </c>
       <c r="C32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D32" t="s">
+        <v>210</v>
       </c>
       <c r="E32" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F32" t="s">
-        <v>212</v>
-      </c>
-      <c r="G32" t="s">
-        <v>213</v>
-      </c>
-      <c r="H32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1928,25 +1709,19 @@
         <v>2022</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D33" t="s">
         <v>201</v>
       </c>
       <c r="E33" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F33" t="s">
-        <v>212</v>
-      </c>
-      <c r="G33" t="s">
         <v>201</v>
       </c>
-      <c r="H33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -1954,25 +1729,19 @@
         <v>2022</v>
       </c>
       <c r="C34" t="s">
-        <v>212</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D34" t="s">
+        <v>210</v>
       </c>
       <c r="E34" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F34" t="s">
-        <v>212</v>
-      </c>
-      <c r="G34" t="s">
-        <v>213</v>
-      </c>
-      <c r="H34" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>17</v>
       </c>
@@ -1980,25 +1749,19 @@
         <v>2022</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="D35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" t="s">
+        <v>209</v>
       </c>
       <c r="F35" t="s">
-        <v>212</v>
-      </c>
-      <c r="G35" t="s">
-        <v>213</v>
-      </c>
-      <c r="H35" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -2006,25 +1769,19 @@
         <v>2022</v>
       </c>
       <c r="C36" t="s">
-        <v>212</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D36" t="s">
+        <v>210</v>
       </c>
       <c r="E36" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F36" t="s">
-        <v>212</v>
-      </c>
-      <c r="G36" t="s">
-        <v>213</v>
-      </c>
-      <c r="H36" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -2032,25 +1789,19 @@
         <v>2022</v>
       </c>
       <c r="C37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="E37" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F37" t="s">
-        <v>212</v>
-      </c>
-      <c r="G37" t="s">
         <v>202</v>
       </c>
-      <c r="H37" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>58</v>
       </c>
@@ -2058,25 +1809,19 @@
         <v>2022</v>
       </c>
       <c r="C38" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E38" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F38" t="s">
-        <v>212</v>
-      </c>
-      <c r="G38" t="s">
-        <v>213</v>
-      </c>
-      <c r="H38" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -2084,25 +1829,19 @@
         <v>2022</v>
       </c>
       <c r="C39" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="D39" t="s">
+        <v>210</v>
+      </c>
+      <c r="E39" t="s">
+        <v>209</v>
       </c>
       <c r="F39" t="s">
-        <v>212</v>
-      </c>
-      <c r="G39" t="s">
-        <v>213</v>
-      </c>
-      <c r="H39" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -2110,25 +1849,19 @@
         <v>2022</v>
       </c>
       <c r="C40" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>210</v>
       </c>
       <c r="E40" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F40" t="s">
-        <v>212</v>
-      </c>
-      <c r="G40" t="s">
-        <v>213</v>
-      </c>
-      <c r="H40" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -2136,25 +1869,19 @@
         <v>2022</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D41" t="s">
+        <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F41" t="s">
-        <v>212</v>
-      </c>
-      <c r="G41" t="s">
-        <v>213</v>
-      </c>
-      <c r="H41" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -2162,25 +1889,19 @@
         <v>2022</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D42" t="s">
+        <v>210</v>
       </c>
       <c r="E42" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F42" t="s">
-        <v>212</v>
-      </c>
-      <c r="G42" t="s">
-        <v>213</v>
-      </c>
-      <c r="H42" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -2188,25 +1909,19 @@
         <v>2022</v>
       </c>
       <c r="C43" t="s">
-        <v>212</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D43" t="s">
+        <v>210</v>
       </c>
       <c r="E43" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F43" t="s">
-        <v>212</v>
-      </c>
-      <c r="G43" t="s">
-        <v>213</v>
-      </c>
-      <c r="H43" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2214,25 +1929,19 @@
         <v>2022</v>
       </c>
       <c r="C44" t="s">
-        <v>212</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D44" t="s">
+        <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F44" t="s">
-        <v>212</v>
-      </c>
-      <c r="G44" t="s">
-        <v>213</v>
-      </c>
-      <c r="H44" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -2240,25 +1949,19 @@
         <v>2022</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D45" t="s">
+        <v>210</v>
       </c>
       <c r="E45" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F45" t="s">
-        <v>212</v>
-      </c>
-      <c r="G45" t="s">
-        <v>213</v>
-      </c>
-      <c r="H45" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>64</v>
       </c>
@@ -2266,25 +1969,19 @@
         <v>2022</v>
       </c>
       <c r="C46" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D46" t="s">
+        <v>210</v>
       </c>
       <c r="E46" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F46" t="s">
-        <v>212</v>
-      </c>
-      <c r="G46" t="s">
-        <v>213</v>
-      </c>
-      <c r="H46" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -2292,25 +1989,19 @@
         <v>2022</v>
       </c>
       <c r="C47" t="s">
-        <v>212</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D47" t="s">
+        <v>210</v>
       </c>
       <c r="E47" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F47" t="s">
-        <v>212</v>
-      </c>
-      <c r="G47" t="s">
-        <v>213</v>
-      </c>
-      <c r="H47" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>66</v>
       </c>
@@ -2318,25 +2009,19 @@
         <v>2022</v>
       </c>
       <c r="C48" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D48" t="s">
+        <v>210</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F48" t="s">
-        <v>212</v>
-      </c>
-      <c r="G48" t="s">
-        <v>213</v>
-      </c>
-      <c r="H48" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -2344,25 +2029,19 @@
         <v>2022</v>
       </c>
       <c r="C49" t="s">
-        <v>212</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
       </c>
       <c r="E49" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
-      </c>
-      <c r="G49" t="s">
-        <v>213</v>
-      </c>
-      <c r="H49" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>195</v>
       </c>
@@ -2370,25 +2049,19 @@
         <v>2022</v>
       </c>
       <c r="C50" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="D50" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" t="s">
+        <v>209</v>
       </c>
       <c r="F50" t="s">
-        <v>212</v>
-      </c>
-      <c r="G50" t="s">
-        <v>213</v>
-      </c>
-      <c r="H50" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>68</v>
       </c>
@@ -2396,25 +2069,19 @@
         <v>2022</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D51" t="s">
+        <v>210</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F51" t="s">
-        <v>212</v>
-      </c>
-      <c r="G51" t="s">
-        <v>213</v>
-      </c>
-      <c r="H51" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>69</v>
       </c>
@@ -2422,25 +2089,19 @@
         <v>2022</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D52" t="s">
+        <v>210</v>
       </c>
       <c r="E52" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F52" t="s">
-        <v>212</v>
-      </c>
-      <c r="G52" t="s">
-        <v>213</v>
-      </c>
-      <c r="H52" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>70</v>
       </c>
@@ -2448,25 +2109,19 @@
         <v>2022</v>
       </c>
       <c r="C53" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
+        <v>210</v>
       </c>
       <c r="E53" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F53" t="s">
-        <v>212</v>
-      </c>
-      <c r="G53" t="s">
-        <v>213</v>
-      </c>
-      <c r="H53" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2474,25 +2129,19 @@
         <v>2022</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
+      </c>
+      <c r="D54" t="s">
+        <v>208</v>
       </c>
       <c r="E54" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F54" t="s">
-        <v>212</v>
-      </c>
-      <c r="G54" t="s">
         <v>203</v>
       </c>
-      <c r="H54" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -2500,25 +2149,19 @@
         <v>2022</v>
       </c>
       <c r="C55" t="s">
-        <v>212</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D55" t="s">
+        <v>210</v>
       </c>
       <c r="E55" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F55" t="s">
-        <v>212</v>
-      </c>
-      <c r="G55" t="s">
-        <v>213</v>
-      </c>
-      <c r="H55" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>72</v>
       </c>
@@ -2526,25 +2169,19 @@
         <v>2022</v>
       </c>
       <c r="C56" t="s">
-        <v>212</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D56" t="s">
+        <v>210</v>
       </c>
       <c r="E56" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G56" t="s">
-        <v>213</v>
-      </c>
-      <c r="H56" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2552,25 +2189,19 @@
         <v>2022</v>
       </c>
       <c r="C57" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="D57" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" t="s">
+        <v>209</v>
       </c>
       <c r="F57" t="s">
-        <v>212</v>
-      </c>
-      <c r="G57" t="s">
-        <v>213</v>
-      </c>
-      <c r="H57" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>73</v>
       </c>
@@ -2578,25 +2209,19 @@
         <v>2022</v>
       </c>
       <c r="C58" t="s">
-        <v>212</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D58" t="s">
+        <v>210</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F58" t="s">
-        <v>212</v>
-      </c>
-      <c r="G58" t="s">
-        <v>213</v>
-      </c>
-      <c r="H58" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -2604,25 +2229,19 @@
         <v>2022</v>
       </c>
       <c r="C59" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D59" t="s">
+        <v>210</v>
       </c>
       <c r="E59" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F59" t="s">
-        <v>212</v>
-      </c>
-      <c r="G59" t="s">
-        <v>213</v>
-      </c>
-      <c r="H59" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>75</v>
       </c>
@@ -2630,25 +2249,19 @@
         <v>2022</v>
       </c>
       <c r="C60" t="s">
-        <v>212</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D60" t="s">
+        <v>210</v>
       </c>
       <c r="E60" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F60" t="s">
-        <v>212</v>
-      </c>
-      <c r="G60" t="s">
-        <v>213</v>
-      </c>
-      <c r="H60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -2656,25 +2269,19 @@
         <v>2022</v>
       </c>
       <c r="C61" t="s">
-        <v>212</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D61" t="s">
+        <v>210</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F61" t="s">
-        <v>212</v>
-      </c>
-      <c r="G61" t="s">
-        <v>213</v>
-      </c>
-      <c r="H61" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2682,25 +2289,19 @@
         <v>2022</v>
       </c>
       <c r="C62" t="s">
-        <v>212</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D62" t="s">
+        <v>210</v>
       </c>
       <c r="E62" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F62" t="s">
-        <v>212</v>
-      </c>
-      <c r="G62" t="s">
-        <v>213</v>
-      </c>
-      <c r="H62" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>78</v>
       </c>
@@ -2708,25 +2309,19 @@
         <v>2022</v>
       </c>
       <c r="C63" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D63" t="s">
         <v>202</v>
       </c>
       <c r="E63" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F63" t="s">
-        <v>212</v>
-      </c>
-      <c r="G63" t="s">
         <v>203</v>
       </c>
-      <c r="H63" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -2734,25 +2329,19 @@
         <v>2022</v>
       </c>
       <c r="C64" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D64" t="s">
+        <v>210</v>
       </c>
       <c r="E64" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F64" t="s">
-        <v>212</v>
-      </c>
-      <c r="G64" t="s">
-        <v>213</v>
-      </c>
-      <c r="H64" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>80</v>
       </c>
@@ -2760,25 +2349,19 @@
         <v>2022</v>
       </c>
       <c r="C65" t="s">
-        <v>212</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D65" t="s">
+        <v>210</v>
       </c>
       <c r="E65" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F65" t="s">
-        <v>212</v>
-      </c>
-      <c r="G65" t="s">
-        <v>213</v>
-      </c>
-      <c r="H65" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>81</v>
       </c>
@@ -2786,25 +2369,19 @@
         <v>2022</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D66" t="s">
+        <v>210</v>
       </c>
       <c r="E66" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F66" t="s">
-        <v>212</v>
-      </c>
-      <c r="G66" t="s">
-        <v>213</v>
-      </c>
-      <c r="H66" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -2812,25 +2389,19 @@
         <v>2022</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
-      </c>
-      <c r="D67" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" t="s">
         <v>203</v>
       </c>
       <c r="E67" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F67" t="s">
-        <v>212</v>
-      </c>
-      <c r="G67" t="s">
         <v>203</v>
       </c>
-      <c r="H67" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>83</v>
       </c>
@@ -2838,25 +2409,19 @@
         <v>2022</v>
       </c>
       <c r="C68" t="s">
-        <v>212</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D68" t="s">
+        <v>210</v>
       </c>
       <c r="E68" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F68" t="s">
-        <v>212</v>
-      </c>
-      <c r="G68" t="s">
-        <v>213</v>
-      </c>
-      <c r="H68" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -2864,25 +2429,19 @@
         <v>2022</v>
       </c>
       <c r="C69" t="s">
-        <v>212</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D69" t="s">
+        <v>210</v>
       </c>
       <c r="E69" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F69" t="s">
-        <v>212</v>
-      </c>
-      <c r="G69" t="s">
-        <v>213</v>
-      </c>
-      <c r="H69" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>85</v>
       </c>
@@ -2890,25 +2449,19 @@
         <v>2022</v>
       </c>
       <c r="C70" t="s">
-        <v>212</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D70" t="s">
+        <v>210</v>
       </c>
       <c r="E70" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F70" t="s">
-        <v>212</v>
-      </c>
-      <c r="G70" t="s">
-        <v>213</v>
-      </c>
-      <c r="H70" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>86</v>
       </c>
@@ -2916,25 +2469,19 @@
         <v>2022</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D71" t="s">
+        <v>210</v>
       </c>
       <c r="E71" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F71" t="s">
-        <v>212</v>
-      </c>
-      <c r="G71" t="s">
-        <v>213</v>
-      </c>
-      <c r="H71" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>87</v>
       </c>
@@ -2942,25 +2489,19 @@
         <v>2022</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D72" t="s">
+        <v>210</v>
       </c>
       <c r="E72" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F72" t="s">
-        <v>212</v>
-      </c>
-      <c r="G72" t="s">
-        <v>213</v>
-      </c>
-      <c r="H72" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -2968,25 +2509,19 @@
         <v>2022</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D73" t="s">
+        <v>210</v>
       </c>
       <c r="E73" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F73" t="s">
-        <v>212</v>
-      </c>
-      <c r="G73" t="s">
-        <v>213</v>
-      </c>
-      <c r="H73" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>89</v>
       </c>
@@ -2994,25 +2529,19 @@
         <v>2022</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D74" t="s">
+        <v>210</v>
       </c>
       <c r="E74" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F74" t="s">
-        <v>212</v>
-      </c>
-      <c r="G74" t="s">
-        <v>213</v>
-      </c>
-      <c r="H74" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>15</v>
       </c>
@@ -3020,25 +2549,19 @@
         <v>2022</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D75" t="s">
+        <v>210</v>
       </c>
       <c r="E75" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F75" t="s">
-        <v>212</v>
-      </c>
-      <c r="G75" t="s">
-        <v>213</v>
-      </c>
-      <c r="H75" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -3046,25 +2569,19 @@
         <v>2022</v>
       </c>
       <c r="C76" t="s">
-        <v>212</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D76" t="s">
+        <v>210</v>
       </c>
       <c r="E76" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F76" t="s">
-        <v>212</v>
-      </c>
-      <c r="G76" t="s">
-        <v>213</v>
-      </c>
-      <c r="H76" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>91</v>
       </c>
@@ -3072,25 +2589,19 @@
         <v>2022</v>
       </c>
       <c r="C77" t="s">
-        <v>212</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D77" t="s">
+        <v>210</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F77" t="s">
-        <v>212</v>
-      </c>
-      <c r="G77" t="s">
-        <v>213</v>
-      </c>
-      <c r="H77" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -3098,25 +2609,19 @@
         <v>2022</v>
       </c>
       <c r="C78" t="s">
-        <v>212</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D78" t="s">
+        <v>210</v>
       </c>
       <c r="E78" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F78" t="s">
-        <v>212</v>
-      </c>
-      <c r="G78" t="s">
-        <v>213</v>
-      </c>
-      <c r="H78" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>93</v>
       </c>
@@ -3124,25 +2629,19 @@
         <v>2022</v>
       </c>
       <c r="C79" t="s">
-        <v>212</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D79" t="s">
+        <v>210</v>
       </c>
       <c r="E79" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F79" t="s">
-        <v>212</v>
-      </c>
-      <c r="G79" t="s">
-        <v>213</v>
-      </c>
-      <c r="H79" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -3150,25 +2649,19 @@
         <v>2022</v>
       </c>
       <c r="C80" t="s">
-        <v>212</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D80" t="s">
+        <v>210</v>
       </c>
       <c r="E80" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F80" t="s">
-        <v>212</v>
-      </c>
-      <c r="G80" t="s">
         <v>201</v>
       </c>
-      <c r="H80" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -3176,25 +2669,19 @@
         <v>2022</v>
       </c>
       <c r="C81" t="s">
-        <v>212</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D81" t="s">
+        <v>210</v>
       </c>
       <c r="E81" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F81" t="s">
-        <v>212</v>
-      </c>
-      <c r="G81" t="s">
-        <v>213</v>
-      </c>
-      <c r="H81" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -3204,23 +2691,17 @@
       <c r="C82" t="s">
         <v>199</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>210</v>
+      <c r="D82" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="E82" t="s">
-        <v>204</v>
-      </c>
-      <c r="F82" t="s">
         <v>199</v>
       </c>
-      <c r="G82" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="H82" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F82" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -3228,25 +2709,19 @@
         <v>2022</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D83" t="s">
         <v>201</v>
       </c>
       <c r="E83" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F83" t="s">
-        <v>212</v>
-      </c>
-      <c r="G83" t="s">
         <v>203</v>
       </c>
-      <c r="H83" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -3254,25 +2729,19 @@
         <v>2022</v>
       </c>
       <c r="C84" t="s">
-        <v>212</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D84" t="s">
+        <v>210</v>
       </c>
       <c r="E84" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F84" t="s">
-        <v>212</v>
-      </c>
-      <c r="G84" t="s">
-        <v>213</v>
-      </c>
-      <c r="H84" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3280,25 +2749,19 @@
         <v>2022</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="E85" t="s">
-        <v>204</v>
-      </c>
-      <c r="F85" t="s">
-        <v>212</v>
-      </c>
-      <c r="G85" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>96</v>
       </c>
@@ -3306,25 +2769,19 @@
         <v>2022</v>
       </c>
       <c r="C86" t="s">
-        <v>212</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D86" t="s">
+        <v>210</v>
       </c>
       <c r="E86" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F86" t="s">
-        <v>212</v>
-      </c>
-      <c r="G86" t="s">
         <v>203</v>
       </c>
-      <c r="H86" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -3332,25 +2789,19 @@
         <v>2022</v>
       </c>
       <c r="C87" t="s">
-        <v>212</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D87" t="s">
+        <v>210</v>
       </c>
       <c r="E87" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F87" t="s">
-        <v>212</v>
-      </c>
-      <c r="G87" t="s">
-        <v>213</v>
-      </c>
-      <c r="H87" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>98</v>
       </c>
@@ -3358,25 +2809,19 @@
         <v>2022</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D88" t="s">
         <v>203</v>
       </c>
       <c r="E88" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F88" t="s">
-        <v>212</v>
-      </c>
-      <c r="G88" t="s">
         <v>203</v>
       </c>
-      <c r="H88" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -3384,25 +2829,19 @@
         <v>2022</v>
       </c>
       <c r="C89" t="s">
-        <v>212</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D89" t="s">
+        <v>210</v>
       </c>
       <c r="E89" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F89" t="s">
-        <v>212</v>
-      </c>
-      <c r="G89" t="s">
-        <v>213</v>
-      </c>
-      <c r="H89" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -3410,25 +2849,19 @@
         <v>2022</v>
       </c>
       <c r="C90" t="s">
-        <v>212</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D90" t="s">
+        <v>210</v>
       </c>
       <c r="E90" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F90" t="s">
-        <v>212</v>
-      </c>
-      <c r="G90" t="s">
-        <v>213</v>
-      </c>
-      <c r="H90" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -3436,25 +2869,19 @@
         <v>2022</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D91" t="s">
+        <v>210</v>
       </c>
       <c r="E91" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F91" t="s">
-        <v>212</v>
-      </c>
-      <c r="G91" t="s">
-        <v>213</v>
-      </c>
-      <c r="H91" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -3462,25 +2889,19 @@
         <v>2022</v>
       </c>
       <c r="C92" t="s">
-        <v>212</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="D92" t="s">
+        <v>210</v>
+      </c>
+      <c r="E92" t="s">
+        <v>209</v>
       </c>
       <c r="F92" t="s">
-        <v>212</v>
-      </c>
-      <c r="G92" t="s">
-        <v>213</v>
-      </c>
-      <c r="H92" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>102</v>
       </c>
@@ -3488,25 +2909,19 @@
         <v>2022</v>
       </c>
       <c r="C93" t="s">
-        <v>212</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D93" t="s">
+        <v>210</v>
       </c>
       <c r="E93" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F93" t="s">
-        <v>212</v>
-      </c>
-      <c r="G93" t="s">
-        <v>213</v>
-      </c>
-      <c r="H93" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -3514,25 +2929,19 @@
         <v>2022</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D94" t="s">
+        <v>210</v>
       </c>
       <c r="E94" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F94" t="s">
-        <v>212</v>
-      </c>
-      <c r="G94" t="s">
-        <v>213</v>
-      </c>
-      <c r="H94" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -3540,25 +2949,19 @@
         <v>2022</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D95" t="s">
+        <v>210</v>
       </c>
       <c r="E95" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F95" t="s">
-        <v>212</v>
-      </c>
-      <c r="G95" t="s">
-        <v>213</v>
-      </c>
-      <c r="H95" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>105</v>
       </c>
@@ -3566,25 +2969,19 @@
         <v>2022</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D96" t="s">
+        <v>210</v>
       </c>
       <c r="E96" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F96" t="s">
-        <v>212</v>
-      </c>
-      <c r="G96" t="s">
-        <v>213</v>
-      </c>
-      <c r="H96" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -3592,25 +2989,19 @@
         <v>2022</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D97" t="s">
+        <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F97" t="s">
-        <v>212</v>
-      </c>
-      <c r="G97" t="s">
-        <v>213</v>
-      </c>
-      <c r="H97" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>107</v>
       </c>
@@ -3618,25 +3009,19 @@
         <v>2022</v>
       </c>
       <c r="C98" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D98" t="s">
+        <v>210</v>
       </c>
       <c r="E98" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F98" t="s">
-        <v>212</v>
-      </c>
-      <c r="G98" t="s">
-        <v>213</v>
-      </c>
-      <c r="H98" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -3644,25 +3029,19 @@
         <v>2022</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D99" t="s">
+        <v>210</v>
       </c>
       <c r="E99" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F99" t="s">
-        <v>212</v>
-      </c>
-      <c r="G99" t="s">
-        <v>213</v>
-      </c>
-      <c r="H99" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -3670,25 +3049,19 @@
         <v>2022</v>
       </c>
       <c r="C100" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D100" t="s">
         <v>202</v>
       </c>
       <c r="E100" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F100" t="s">
-        <v>212</v>
-      </c>
-      <c r="G100" t="s">
         <v>203</v>
       </c>
-      <c r="H100" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>109</v>
       </c>
@@ -3696,25 +3069,19 @@
         <v>2022</v>
       </c>
       <c r="C101" t="s">
-        <v>212</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D101" t="s">
+        <v>210</v>
       </c>
       <c r="E101" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F101" t="s">
-        <v>212</v>
-      </c>
-      <c r="G101" t="s">
-        <v>213</v>
-      </c>
-      <c r="H101" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>110</v>
       </c>
@@ -3722,25 +3089,19 @@
         <v>2022</v>
       </c>
       <c r="C102" t="s">
-        <v>212</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D102" t="s">
+        <v>210</v>
       </c>
       <c r="E102" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F102" t="s">
-        <v>212</v>
-      </c>
-      <c r="G102" t="s">
-        <v>213</v>
-      </c>
-      <c r="H102" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -3748,25 +3109,19 @@
         <v>2022</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D103" t="s">
+        <v>210</v>
       </c>
       <c r="E103" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F103" t="s">
-        <v>212</v>
-      </c>
-      <c r="G103" t="s">
-        <v>213</v>
-      </c>
-      <c r="H103" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>112</v>
       </c>
@@ -3774,25 +3129,19 @@
         <v>2022</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D104" t="s">
+        <v>210</v>
       </c>
       <c r="E104" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F104" t="s">
-        <v>212</v>
-      </c>
-      <c r="G104" t="s">
-        <v>213</v>
-      </c>
-      <c r="H104" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -3800,25 +3149,19 @@
         <v>2022</v>
       </c>
       <c r="C105" t="s">
-        <v>212</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D105" t="s">
+        <v>210</v>
       </c>
       <c r="E105" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F105" t="s">
-        <v>212</v>
-      </c>
-      <c r="G105" t="s">
-        <v>213</v>
-      </c>
-      <c r="H105" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -3826,25 +3169,19 @@
         <v>2022</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D106" t="s">
+        <v>210</v>
       </c>
       <c r="E106" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
-      </c>
-      <c r="G106" t="s">
-        <v>213</v>
-      </c>
-      <c r="H106" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>115</v>
       </c>
@@ -3852,25 +3189,19 @@
         <v>2022</v>
       </c>
       <c r="C107" t="s">
-        <v>212</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D107" t="s">
+        <v>210</v>
       </c>
       <c r="E107" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
-      </c>
-      <c r="G107" t="s">
-        <v>213</v>
-      </c>
-      <c r="H107" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>116</v>
       </c>
@@ -3878,25 +3209,19 @@
         <v>2022</v>
       </c>
       <c r="C108" t="s">
-        <v>212</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D108" t="s">
+        <v>210</v>
       </c>
       <c r="E108" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
-      </c>
-      <c r="G108" t="s">
-        <v>213</v>
-      </c>
-      <c r="H108" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>117</v>
       </c>
@@ -3904,25 +3229,19 @@
         <v>2022</v>
       </c>
       <c r="C109" t="s">
-        <v>212</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D109" t="s">
+        <v>210</v>
       </c>
       <c r="E109" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
-      </c>
-      <c r="G109" t="s">
-        <v>213</v>
-      </c>
-      <c r="H109" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>118</v>
       </c>
@@ -3930,25 +3249,19 @@
         <v>2022</v>
       </c>
       <c r="C110" t="s">
-        <v>212</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D110" t="s">
+        <v>210</v>
       </c>
       <c r="E110" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
-      </c>
-      <c r="G110" t="s">
-        <v>213</v>
-      </c>
-      <c r="H110" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>119</v>
       </c>
@@ -3956,25 +3269,19 @@
         <v>2022</v>
       </c>
       <c r="C111" t="s">
-        <v>212</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D111" t="s">
+        <v>210</v>
       </c>
       <c r="E111" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
-      </c>
-      <c r="G111" t="s">
-        <v>213</v>
-      </c>
-      <c r="H111" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>120</v>
       </c>
@@ -3982,25 +3289,19 @@
         <v>2022</v>
       </c>
       <c r="C112" t="s">
-        <v>212</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D112" t="s">
+        <v>210</v>
       </c>
       <c r="E112" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
-      </c>
-      <c r="G112" t="s">
-        <v>213</v>
-      </c>
-      <c r="H112" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>121</v>
       </c>
@@ -4008,25 +3309,19 @@
         <v>2022</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D113" t="s">
+        <v>210</v>
       </c>
       <c r="E113" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
-      </c>
-      <c r="G113" t="s">
-        <v>213</v>
-      </c>
-      <c r="H113" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>21</v>
       </c>
@@ -4034,25 +3329,19 @@
         <v>2022</v>
       </c>
       <c r="C114" t="s">
-        <v>212</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+      <c r="D114" t="s">
+        <v>210</v>
+      </c>
+      <c r="E114" t="s">
+        <v>209</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
-      </c>
-      <c r="G114" t="s">
-        <v>213</v>
-      </c>
-      <c r="H114" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>148</v>
       </c>
@@ -4060,25 +3349,19 @@
         <v>2022</v>
       </c>
       <c r="C115" t="s">
-        <v>212</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D115" t="s">
+        <v>210</v>
       </c>
       <c r="E115" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F115" t="s">
-        <v>212</v>
-      </c>
-      <c r="G115" t="s">
-        <v>213</v>
-      </c>
-      <c r="H115" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -4086,25 +3369,19 @@
         <v>2022</v>
       </c>
       <c r="C116" t="s">
-        <v>212</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D116" t="s">
+        <v>210</v>
       </c>
       <c r="E116" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F116" t="s">
-        <v>212</v>
-      </c>
-      <c r="G116" t="s">
-        <v>213</v>
-      </c>
-      <c r="H116" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -4112,25 +3389,19 @@
         <v>2022</v>
       </c>
       <c r="C117" t="s">
-        <v>212</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D117" t="s">
+        <v>210</v>
       </c>
       <c r="E117" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F117" t="s">
-        <v>212</v>
-      </c>
-      <c r="G117" t="s">
-        <v>213</v>
-      </c>
-      <c r="H117" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -4138,25 +3409,19 @@
         <v>2022</v>
       </c>
       <c r="C118" t="s">
-        <v>212</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D118" t="s">
+        <v>210</v>
       </c>
       <c r="E118" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F118" t="s">
-        <v>212</v>
-      </c>
-      <c r="G118" t="s">
-        <v>213</v>
-      </c>
-      <c r="H118" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -4164,25 +3429,19 @@
         <v>2022</v>
       </c>
       <c r="C119" t="s">
-        <v>212</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D119" t="s">
+        <v>210</v>
       </c>
       <c r="E119" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F119" t="s">
-        <v>212</v>
-      </c>
-      <c r="G119" t="s">
-        <v>213</v>
-      </c>
-      <c r="H119" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -4190,25 +3449,19 @@
         <v>2022</v>
       </c>
       <c r="C120" t="s">
-        <v>212</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D120" t="s">
+        <v>210</v>
       </c>
       <c r="E120" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F120" t="s">
-        <v>212</v>
-      </c>
-      <c r="G120" t="s">
-        <v>213</v>
-      </c>
-      <c r="H120" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -4216,25 +3469,19 @@
         <v>2022</v>
       </c>
       <c r="C121" t="s">
-        <v>212</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D121" t="s">
+        <v>210</v>
       </c>
       <c r="E121" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F121" t="s">
-        <v>212</v>
-      </c>
-      <c r="G121" t="s">
-        <v>213</v>
-      </c>
-      <c r="H121" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>22</v>
       </c>
@@ -4242,25 +3489,19 @@
         <v>2022</v>
       </c>
       <c r="C122" t="s">
-        <v>212</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D122" t="s">
+        <v>210</v>
       </c>
       <c r="E122" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F122" t="s">
-        <v>212</v>
-      </c>
-      <c r="G122" t="s">
-        <v>213</v>
-      </c>
-      <c r="H122" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>128</v>
       </c>
@@ -4268,25 +3509,19 @@
         <v>2022</v>
       </c>
       <c r="C123" t="s">
-        <v>212</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D123" t="s">
+        <v>210</v>
       </c>
       <c r="E123" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F123" t="s">
-        <v>212</v>
-      </c>
-      <c r="G123" t="s">
-        <v>213</v>
-      </c>
-      <c r="H123" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>129</v>
       </c>
@@ -4294,25 +3529,19 @@
         <v>2022</v>
       </c>
       <c r="C124" t="s">
-        <v>212</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D124" t="s">
+        <v>210</v>
       </c>
       <c r="E124" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F124" t="s">
-        <v>212</v>
-      </c>
-      <c r="G124" t="s">
-        <v>213</v>
-      </c>
-      <c r="H124" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>130</v>
       </c>
@@ -4320,25 +3549,19 @@
         <v>2022</v>
       </c>
       <c r="C125" t="s">
-        <v>212</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D125" t="s">
+        <v>210</v>
       </c>
       <c r="E125" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F125" t="s">
-        <v>212</v>
-      </c>
-      <c r="G125" t="s">
-        <v>213</v>
-      </c>
-      <c r="H125" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -4346,25 +3569,19 @@
         <v>2022</v>
       </c>
       <c r="C126" t="s">
-        <v>212</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D126" t="s">
+        <v>210</v>
       </c>
       <c r="E126" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F126" t="s">
-        <v>212</v>
-      </c>
-      <c r="G126" t="s">
-        <v>213</v>
-      </c>
-      <c r="H126" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -4372,25 +3589,19 @@
         <v>2022</v>
       </c>
       <c r="C127" t="s">
-        <v>212</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D127" t="s">
+        <v>210</v>
       </c>
       <c r="E127" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F127" t="s">
-        <v>212</v>
-      </c>
-      <c r="G127" t="s">
-        <v>213</v>
-      </c>
-      <c r="H127" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -4398,25 +3609,19 @@
         <v>2022</v>
       </c>
       <c r="C128" t="s">
-        <v>212</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D128" t="s">
+        <v>210</v>
       </c>
       <c r="E128" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F128" t="s">
-        <v>212</v>
-      </c>
-      <c r="G128" t="s">
-        <v>213</v>
-      </c>
-      <c r="H128" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -4424,25 +3629,19 @@
         <v>2022</v>
       </c>
       <c r="C129" t="s">
-        <v>212</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D129" t="s">
+        <v>210</v>
       </c>
       <c r="E129" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F129" t="s">
-        <v>212</v>
-      </c>
-      <c r="G129" t="s">
-        <v>213</v>
-      </c>
-      <c r="H129" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -4450,25 +3649,19 @@
         <v>2022</v>
       </c>
       <c r="C130" t="s">
-        <v>212</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D130" t="s">
+        <v>210</v>
       </c>
       <c r="E130" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F130" t="s">
-        <v>212</v>
-      </c>
-      <c r="G130" t="s">
-        <v>213</v>
-      </c>
-      <c r="H130" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -4478,23 +3671,17 @@
       <c r="C131" t="s">
         <v>199</v>
       </c>
-      <c r="D131" s="4" t="s">
-        <v>210</v>
+      <c r="D131" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="E131" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F131" t="s">
-        <v>209</v>
-      </c>
-      <c r="G131" t="s">
-        <v>208</v>
-      </c>
-      <c r="H131" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>136</v>
       </c>
@@ -4502,25 +3689,19 @@
         <v>2022</v>
       </c>
       <c r="C132" t="s">
-        <v>212</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D132" t="s">
+        <v>210</v>
       </c>
       <c r="E132" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F132" t="s">
-        <v>212</v>
-      </c>
-      <c r="G132" t="s">
-        <v>213</v>
-      </c>
-      <c r="H132" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>198</v>
       </c>
@@ -4528,25 +3709,19 @@
         <v>2022</v>
       </c>
       <c r="C133" t="s">
-        <v>212</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D133" t="s">
+        <v>210</v>
       </c>
       <c r="E133" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F133" t="s">
-        <v>212</v>
-      </c>
-      <c r="G133" t="s">
-        <v>213</v>
-      </c>
-      <c r="H133" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -4554,25 +3729,19 @@
         <v>2022</v>
       </c>
       <c r="C134" t="s">
-        <v>212</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D134" t="s">
+        <v>210</v>
       </c>
       <c r="E134" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F134" t="s">
-        <v>212</v>
-      </c>
-      <c r="G134" t="s">
-        <v>213</v>
-      </c>
-      <c r="H134" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -4580,25 +3749,19 @@
         <v>2022</v>
       </c>
       <c r="C135" t="s">
-        <v>212</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D135" t="s">
+        <v>210</v>
       </c>
       <c r="E135" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F135" t="s">
-        <v>212</v>
-      </c>
-      <c r="G135" t="s">
-        <v>213</v>
-      </c>
-      <c r="H135" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -4606,25 +3769,19 @@
         <v>2022</v>
       </c>
       <c r="C136" t="s">
-        <v>212</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D136" t="s">
+        <v>210</v>
       </c>
       <c r="E136" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F136" t="s">
-        <v>212</v>
-      </c>
-      <c r="G136" t="s">
-        <v>213</v>
-      </c>
-      <c r="H136" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>169</v>
       </c>
@@ -4632,25 +3789,19 @@
         <v>2022</v>
       </c>
       <c r="C137" t="s">
-        <v>212</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D137" t="s">
+        <v>210</v>
       </c>
       <c r="E137" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F137" t="s">
-        <v>212</v>
-      </c>
-      <c r="G137" t="s">
-        <v>213</v>
-      </c>
-      <c r="H137" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -4658,25 +3809,19 @@
         <v>2022</v>
       </c>
       <c r="C138" t="s">
-        <v>212</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D138" t="s">
+        <v>210</v>
       </c>
       <c r="E138" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F138" t="s">
-        <v>212</v>
-      </c>
-      <c r="G138" t="s">
-        <v>213</v>
-      </c>
-      <c r="H138" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -4684,25 +3829,19 @@
         <v>2022</v>
       </c>
       <c r="C139" t="s">
-        <v>212</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D139" t="s">
+        <v>210</v>
       </c>
       <c r="E139" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F139" t="s">
-        <v>212</v>
-      </c>
-      <c r="G139" t="s">
-        <v>213</v>
-      </c>
-      <c r="H139" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -4710,25 +3849,19 @@
         <v>2022</v>
       </c>
       <c r="C140" t="s">
-        <v>212</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D140" t="s">
+        <v>210</v>
       </c>
       <c r="E140" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F140" t="s">
-        <v>212</v>
-      </c>
-      <c r="G140" t="s">
-        <v>213</v>
-      </c>
-      <c r="H140" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -4736,25 +3869,19 @@
         <v>2022</v>
       </c>
       <c r="C141" t="s">
-        <v>212</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D141" t="s">
+        <v>210</v>
       </c>
       <c r="E141" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F141" t="s">
-        <v>212</v>
-      </c>
-      <c r="G141" t="s">
-        <v>213</v>
-      </c>
-      <c r="H141" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -4762,25 +3889,19 @@
         <v>2022</v>
       </c>
       <c r="C142" t="s">
-        <v>212</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D142" t="s">
+        <v>210</v>
       </c>
       <c r="E142" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F142" t="s">
-        <v>212</v>
-      </c>
-      <c r="G142" t="s">
-        <v>213</v>
-      </c>
-      <c r="H142" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -4788,25 +3909,19 @@
         <v>2022</v>
       </c>
       <c r="C143" t="s">
-        <v>212</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D143" t="s">
+        <v>210</v>
       </c>
       <c r="E143" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F143" t="s">
-        <v>212</v>
-      </c>
-      <c r="G143" t="s">
-        <v>213</v>
-      </c>
-      <c r="H143" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -4814,25 +3929,19 @@
         <v>2022</v>
       </c>
       <c r="C144" t="s">
-        <v>212</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D144" t="s">
+        <v>210</v>
       </c>
       <c r="E144" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F144" t="s">
-        <v>212</v>
-      </c>
-      <c r="G144" t="s">
-        <v>213</v>
-      </c>
-      <c r="H144" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -4840,25 +3949,19 @@
         <v>2022</v>
       </c>
       <c r="C145" t="s">
-        <v>212</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D145" t="s">
+        <v>210</v>
       </c>
       <c r="E145" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F145" t="s">
-        <v>212</v>
-      </c>
-      <c r="G145" t="s">
-        <v>213</v>
-      </c>
-      <c r="H145" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -4866,25 +3969,19 @@
         <v>2022</v>
       </c>
       <c r="C146" t="s">
-        <v>212</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D146" t="s">
+        <v>210</v>
       </c>
       <c r="E146" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F146" t="s">
-        <v>212</v>
-      </c>
-      <c r="G146" t="s">
-        <v>213</v>
-      </c>
-      <c r="H146" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -4894,23 +3991,17 @@
       <c r="C147" t="s">
         <v>199</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E147" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F147" t="s">
-        <v>209</v>
-      </c>
-      <c r="G147" t="s">
-        <v>208</v>
-      </c>
-      <c r="H147" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -4918,25 +4009,19 @@
         <v>2022</v>
       </c>
       <c r="C148" t="s">
-        <v>212</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D148" t="s">
+        <v>210</v>
       </c>
       <c r="E148" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F148" t="s">
-        <v>212</v>
-      </c>
-      <c r="G148" t="s">
-        <v>213</v>
-      </c>
-      <c r="H148" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -4944,25 +4029,19 @@
         <v>2022</v>
       </c>
       <c r="C149" t="s">
-        <v>212</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D149" t="s">
+        <v>210</v>
       </c>
       <c r="E149" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F149" t="s">
-        <v>212</v>
-      </c>
-      <c r="G149" t="s">
-        <v>213</v>
-      </c>
-      <c r="H149" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -4970,25 +4049,19 @@
         <v>2022</v>
       </c>
       <c r="C150" t="s">
-        <v>212</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D150" t="s">
+        <v>210</v>
       </c>
       <c r="E150" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F150" t="s">
-        <v>212</v>
-      </c>
-      <c r="G150" t="s">
-        <v>213</v>
-      </c>
-      <c r="H150" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -4996,25 +4069,19 @@
         <v>2022</v>
       </c>
       <c r="C151" t="s">
-        <v>212</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D151" t="s">
+        <v>210</v>
       </c>
       <c r="E151" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F151" t="s">
-        <v>212</v>
-      </c>
-      <c r="G151" t="s">
-        <v>213</v>
-      </c>
-      <c r="H151" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -5022,25 +4089,19 @@
         <v>2022</v>
       </c>
       <c r="C152" t="s">
-        <v>212</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D152" t="s">
+        <v>210</v>
       </c>
       <c r="E152" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F152" t="s">
-        <v>212</v>
-      </c>
-      <c r="G152" t="s">
-        <v>213</v>
-      </c>
-      <c r="H152" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -5048,25 +4109,19 @@
         <v>2022</v>
       </c>
       <c r="C153" t="s">
-        <v>212</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D153" t="s">
+        <v>210</v>
       </c>
       <c r="E153" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F153" t="s">
-        <v>212</v>
-      </c>
-      <c r="G153" t="s">
-        <v>213</v>
-      </c>
-      <c r="H153" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -5074,25 +4129,19 @@
         <v>2022</v>
       </c>
       <c r="C154" t="s">
-        <v>212</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D154" t="s">
+        <v>210</v>
       </c>
       <c r="E154" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F154" t="s">
-        <v>212</v>
-      </c>
-      <c r="G154" t="s">
-        <v>213</v>
-      </c>
-      <c r="H154" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -5100,25 +4149,19 @@
         <v>2022</v>
       </c>
       <c r="C155" t="s">
-        <v>212</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D155" t="s">
+        <v>210</v>
       </c>
       <c r="E155" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F155" t="s">
-        <v>212</v>
-      </c>
-      <c r="G155" t="s">
-        <v>213</v>
-      </c>
-      <c r="H155" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -5126,25 +4169,19 @@
         <v>2022</v>
       </c>
       <c r="C156" t="s">
-        <v>212</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D156" t="s">
+        <v>210</v>
       </c>
       <c r="E156" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F156" t="s">
-        <v>212</v>
-      </c>
-      <c r="G156" t="s">
-        <v>213</v>
-      </c>
-      <c r="H156" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -5152,25 +4189,19 @@
         <v>2022</v>
       </c>
       <c r="C157" t="s">
-        <v>212</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D157" t="s">
+        <v>210</v>
       </c>
       <c r="E157" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F157" t="s">
-        <v>212</v>
-      </c>
-      <c r="G157" t="s">
         <v>201</v>
       </c>
-      <c r="H157" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -5178,25 +4209,19 @@
         <v>2022</v>
       </c>
       <c r="C158" t="s">
-        <v>212</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D158" t="s">
+        <v>210</v>
       </c>
       <c r="E158" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F158" t="s">
-        <v>212</v>
-      </c>
-      <c r="G158" t="s">
-        <v>213</v>
-      </c>
-      <c r="H158" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -5204,25 +4229,19 @@
         <v>2022</v>
       </c>
       <c r="C159" t="s">
-        <v>212</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D159" t="s">
+        <v>210</v>
       </c>
       <c r="E159" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F159" t="s">
-        <v>212</v>
-      </c>
-      <c r="G159" t="s">
-        <v>213</v>
-      </c>
-      <c r="H159" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -5230,25 +4249,19 @@
         <v>2022</v>
       </c>
       <c r="C160" t="s">
-        <v>212</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D160" t="s">
+        <v>210</v>
       </c>
       <c r="E160" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F160" t="s">
-        <v>212</v>
-      </c>
-      <c r="G160" t="s">
-        <v>213</v>
-      </c>
-      <c r="H160" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -5256,25 +4269,19 @@
         <v>2022</v>
       </c>
       <c r="C161" t="s">
-        <v>212</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D161" t="s">
+        <v>210</v>
       </c>
       <c r="E161" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F161" t="s">
-        <v>212</v>
-      </c>
-      <c r="G161" t="s">
-        <v>213</v>
-      </c>
-      <c r="H161" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -5282,25 +4289,19 @@
         <v>2022</v>
       </c>
       <c r="C162" t="s">
-        <v>212</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D162" t="s">
+        <v>210</v>
       </c>
       <c r="E162" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F162" t="s">
-        <v>212</v>
-      </c>
-      <c r="G162" t="s">
-        <v>213</v>
-      </c>
-      <c r="H162" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -5308,25 +4309,19 @@
         <v>2022</v>
       </c>
       <c r="C163" t="s">
-        <v>212</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D163" t="s">
+        <v>210</v>
       </c>
       <c r="E163" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F163" t="s">
-        <v>212</v>
-      </c>
-      <c r="G163" t="s">
-        <v>213</v>
-      </c>
-      <c r="H163" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>16</v>
       </c>
@@ -5334,25 +4329,19 @@
         <v>2022</v>
       </c>
       <c r="C164" t="s">
-        <v>212</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D164" t="s">
+        <v>210</v>
       </c>
       <c r="E164" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F164" t="s">
-        <v>212</v>
-      </c>
-      <c r="G164" t="s">
-        <v>213</v>
-      </c>
-      <c r="H164" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -5360,25 +4349,19 @@
         <v>2022</v>
       </c>
       <c r="C165" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D165" t="s">
         <v>203</v>
       </c>
       <c r="E165" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F165" t="s">
-        <v>212</v>
-      </c>
-      <c r="G165" t="s">
-        <v>208</v>
-      </c>
-      <c r="H165" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>11</v>
       </c>
@@ -5386,25 +4369,19 @@
         <v>2022</v>
       </c>
       <c r="C166" t="s">
-        <v>212</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D166" t="s">
+        <v>210</v>
       </c>
       <c r="E166" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F166" t="s">
-        <v>212</v>
-      </c>
-      <c r="G166" t="s">
         <v>201</v>
       </c>
-      <c r="H166" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>23</v>
       </c>
@@ -5412,25 +4389,19 @@
         <v>2022</v>
       </c>
       <c r="C167" t="s">
-        <v>212</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D167" t="s">
+        <v>210</v>
       </c>
       <c r="E167" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F167" t="s">
-        <v>212</v>
-      </c>
-      <c r="G167" t="s">
-        <v>213</v>
-      </c>
-      <c r="H167" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -5438,25 +4409,19 @@
         <v>2022</v>
       </c>
       <c r="C168" t="s">
-        <v>212</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D168" t="s">
+        <v>210</v>
       </c>
       <c r="E168" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F168" t="s">
-        <v>212</v>
-      </c>
-      <c r="G168" t="s">
         <v>203</v>
       </c>
-      <c r="H168" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -5464,25 +4429,19 @@
         <v>2022</v>
       </c>
       <c r="C169" t="s">
-        <v>212</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D169" t="s">
+        <v>210</v>
       </c>
       <c r="E169" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F169" t="s">
-        <v>212</v>
-      </c>
-      <c r="G169" t="s">
-        <v>213</v>
-      </c>
-      <c r="H169" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>12</v>
       </c>
@@ -5490,25 +4449,19 @@
         <v>2022</v>
       </c>
       <c r="C170" t="s">
-        <v>212</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D170" t="s">
+        <v>210</v>
       </c>
       <c r="E170" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F170" t="s">
-        <v>212</v>
-      </c>
-      <c r="G170" t="s">
-        <v>213</v>
-      </c>
-      <c r="H170" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -5516,25 +4469,19 @@
         <v>2022</v>
       </c>
       <c r="C171" t="s">
-        <v>212</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D171" t="s">
+        <v>210</v>
       </c>
       <c r="E171" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F171" t="s">
-        <v>212</v>
-      </c>
-      <c r="G171" t="s">
-        <v>213</v>
-      </c>
-      <c r="H171" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -5542,25 +4489,19 @@
         <v>2022</v>
       </c>
       <c r="C172" t="s">
-        <v>212</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D172" t="s">
+        <v>210</v>
       </c>
       <c r="E172" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F172" t="s">
-        <v>212</v>
-      </c>
-      <c r="G172" t="s">
-        <v>213</v>
-      </c>
-      <c r="H172" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -5568,25 +4509,19 @@
         <v>2022</v>
       </c>
       <c r="C173" t="s">
-        <v>212</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D173" t="s">
+        <v>210</v>
       </c>
       <c r="E173" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F173" t="s">
-        <v>212</v>
-      </c>
-      <c r="G173" t="s">
-        <v>213</v>
-      </c>
-      <c r="H173" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>13</v>
       </c>
@@ -5594,25 +4529,19 @@
         <v>2022</v>
       </c>
       <c r="C174" t="s">
-        <v>212</v>
-      </c>
-      <c r="D174" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D174" s="2" t="s">
         <v>201</v>
       </c>
       <c r="E174" t="s">
         <v>204</v>
       </c>
-      <c r="F174" t="s">
-        <v>207</v>
-      </c>
-      <c r="G174" s="4" t="s">
+      <c r="F174" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H174" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -5620,25 +4549,19 @@
         <v>2022</v>
       </c>
       <c r="C175" t="s">
-        <v>212</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D175" t="s">
+        <v>210</v>
       </c>
       <c r="E175" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F175" t="s">
-        <v>212</v>
-      </c>
-      <c r="G175" t="s">
-        <v>213</v>
-      </c>
-      <c r="H175" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>186</v>
       </c>
@@ -5646,25 +4569,19 @@
         <v>2022</v>
       </c>
       <c r="C176" t="s">
-        <v>212</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D176" t="s">
+        <v>210</v>
       </c>
       <c r="E176" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F176" t="s">
-        <v>212</v>
-      </c>
-      <c r="G176" t="s">
-        <v>213</v>
-      </c>
-      <c r="H176" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>174</v>
       </c>
@@ -5672,25 +4589,19 @@
         <v>2022</v>
       </c>
       <c r="C177" t="s">
-        <v>212</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D177" t="s">
+        <v>210</v>
       </c>
       <c r="E177" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F177" t="s">
-        <v>212</v>
-      </c>
-      <c r="G177" t="s">
-        <v>213</v>
-      </c>
-      <c r="H177" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>175</v>
       </c>
@@ -5698,25 +4609,19 @@
         <v>2022</v>
       </c>
       <c r="C178" t="s">
-        <v>212</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D178" t="s">
+        <v>210</v>
       </c>
       <c r="E178" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F178" t="s">
-        <v>212</v>
-      </c>
-      <c r="G178" t="s">
-        <v>213</v>
-      </c>
-      <c r="H178" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>176</v>
       </c>
@@ -5724,25 +4629,19 @@
         <v>2022</v>
       </c>
       <c r="C179" t="s">
-        <v>212</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D179" t="s">
+        <v>210</v>
       </c>
       <c r="E179" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F179" t="s">
-        <v>212</v>
-      </c>
-      <c r="G179" t="s">
-        <v>213</v>
-      </c>
-      <c r="H179" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>177</v>
       </c>
@@ -5750,25 +4649,19 @@
         <v>2022</v>
       </c>
       <c r="C180" t="s">
-        <v>212</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D180" t="s">
+        <v>210</v>
       </c>
       <c r="E180" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F180" t="s">
-        <v>212</v>
-      </c>
-      <c r="G180" t="s">
-        <v>213</v>
-      </c>
-      <c r="H180" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>178</v>
       </c>
@@ -5776,25 +4669,19 @@
         <v>2022</v>
       </c>
       <c r="C181" t="s">
-        <v>212</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D181" t="s">
+        <v>210</v>
       </c>
       <c r="E181" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F181" t="s">
-        <v>212</v>
-      </c>
-      <c r="G181" t="s">
-        <v>213</v>
-      </c>
-      <c r="H181" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>179</v>
       </c>
@@ -5802,25 +4689,19 @@
         <v>2022</v>
       </c>
       <c r="C182" t="s">
-        <v>212</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D182" t="s">
+        <v>210</v>
       </c>
       <c r="E182" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F182" t="s">
-        <v>212</v>
-      </c>
-      <c r="G182" t="s">
-        <v>213</v>
-      </c>
-      <c r="H182" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>180</v>
       </c>
@@ -5828,25 +4709,19 @@
         <v>2022</v>
       </c>
       <c r="C183" t="s">
-        <v>212</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D183" t="s">
+        <v>210</v>
       </c>
       <c r="E183" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F183" t="s">
-        <v>212</v>
-      </c>
-      <c r="G183" t="s">
-        <v>213</v>
-      </c>
-      <c r="H183" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>181</v>
       </c>
@@ -5854,25 +4729,19 @@
         <v>2022</v>
       </c>
       <c r="C184" t="s">
-        <v>212</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D184" t="s">
+        <v>210</v>
       </c>
       <c r="E184" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F184" t="s">
-        <v>212</v>
-      </c>
-      <c r="G184" t="s">
-        <v>213</v>
-      </c>
-      <c r="H184" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>24</v>
       </c>
@@ -5880,25 +4749,19 @@
         <v>2022</v>
       </c>
       <c r="C185" t="s">
-        <v>212</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D185" t="s">
+        <v>210</v>
       </c>
       <c r="E185" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F185" t="s">
-        <v>212</v>
-      </c>
-      <c r="G185" t="s">
-        <v>213</v>
-      </c>
-      <c r="H185" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>182</v>
       </c>
@@ -5906,25 +4769,19 @@
         <v>2022</v>
       </c>
       <c r="C186" t="s">
-        <v>212</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D186" t="s">
+        <v>210</v>
       </c>
       <c r="E186" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F186" t="s">
-        <v>212</v>
-      </c>
-      <c r="G186" t="s">
-        <v>213</v>
-      </c>
-      <c r="H186" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>183</v>
       </c>
@@ -5932,25 +4789,19 @@
         <v>2022</v>
       </c>
       <c r="C187" t="s">
-        <v>212</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D187" t="s">
+        <v>210</v>
       </c>
       <c r="E187" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F187" t="s">
-        <v>212</v>
-      </c>
-      <c r="G187" t="s">
-        <v>213</v>
-      </c>
-      <c r="H187" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -5958,25 +4809,19 @@
         <v>2022</v>
       </c>
       <c r="C188" t="s">
-        <v>212</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D188" t="s">
+        <v>210</v>
       </c>
       <c r="E188" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F188" t="s">
-        <v>212</v>
-      </c>
-      <c r="G188" t="s">
-        <v>213</v>
-      </c>
-      <c r="H188" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>185</v>
       </c>
@@ -5984,25 +4829,19 @@
         <v>2022</v>
       </c>
       <c r="C189" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D189" t="s">
         <v>201</v>
       </c>
       <c r="E189" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F189" t="s">
-        <v>212</v>
-      </c>
-      <c r="G189" t="s">
         <v>203</v>
       </c>
-      <c r="H189" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -6016,19 +4855,13 @@
         <v>201</v>
       </c>
       <c r="E190" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F190" t="s">
-        <v>200</v>
-      </c>
-      <c r="G190" t="s">
         <v>203</v>
       </c>
-      <c r="H190" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>187</v>
       </c>
@@ -6036,25 +4869,19 @@
         <v>2022</v>
       </c>
       <c r="C191" t="s">
-        <v>212</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D191" t="s">
+        <v>210</v>
       </c>
       <c r="E191" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F191" t="s">
-        <v>212</v>
-      </c>
-      <c r="G191" t="s">
-        <v>213</v>
-      </c>
-      <c r="H191" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>188</v>
       </c>
@@ -6062,25 +4889,19 @@
         <v>2022</v>
       </c>
       <c r="C192" t="s">
-        <v>212</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D192" t="s">
+        <v>210</v>
       </c>
       <c r="E192" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F192" t="s">
-        <v>212</v>
-      </c>
-      <c r="G192" t="s">
-        <v>213</v>
-      </c>
-      <c r="H192" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>189</v>
       </c>
@@ -6088,25 +4909,19 @@
         <v>2022</v>
       </c>
       <c r="C193" t="s">
-        <v>212</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D193" t="s">
+        <v>210</v>
       </c>
       <c r="E193" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F193" t="s">
-        <v>212</v>
-      </c>
-      <c r="G193" t="s">
-        <v>213</v>
-      </c>
-      <c r="H193" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>190</v>
       </c>
@@ -6114,25 +4929,19 @@
         <v>2022</v>
       </c>
       <c r="C194" t="s">
-        <v>212</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D194" t="s">
+        <v>210</v>
       </c>
       <c r="E194" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F194" t="s">
-        <v>212</v>
-      </c>
-      <c r="G194" t="s">
-        <v>213</v>
-      </c>
-      <c r="H194" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>191</v>
       </c>
@@ -6140,25 +4949,19 @@
         <v>2022</v>
       </c>
       <c r="C195" t="s">
-        <v>212</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D195" t="s">
+        <v>210</v>
       </c>
       <c r="E195" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F195" t="s">
-        <v>212</v>
-      </c>
-      <c r="G195" t="s">
-        <v>213</v>
-      </c>
-      <c r="H195" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>192</v>
       </c>
@@ -6166,25 +4969,19 @@
         <v>2022</v>
       </c>
       <c r="C196" t="s">
-        <v>212</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D196" t="s">
+        <v>210</v>
       </c>
       <c r="E196" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F196" t="s">
-        <v>212</v>
-      </c>
-      <c r="G196" t="s">
-        <v>213</v>
-      </c>
-      <c r="H196" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>193</v>
       </c>
@@ -6192,25 +4989,19 @@
         <v>2022</v>
       </c>
       <c r="C197" t="s">
-        <v>212</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D197" t="s">
+        <v>210</v>
       </c>
       <c r="E197" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F197" t="s">
-        <v>212</v>
-      </c>
-      <c r="G197" t="s">
-        <v>213</v>
-      </c>
-      <c r="H197" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>194</v>
       </c>
@@ -6218,26 +5009,20 @@
         <v>2022</v>
       </c>
       <c r="C198" t="s">
-        <v>212</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
+      </c>
+      <c r="D198" t="s">
+        <v>210</v>
       </c>
       <c r="E198" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F198" t="s">
-        <v>212</v>
-      </c>
-      <c r="G198" t="s">
-        <v>213</v>
-      </c>
-      <c r="H198" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H202">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F202">
     <sortCondition ref="A2:A202"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
